--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Mã trạng thái 200, trang chủ load nhanh, không lỗi</t>
+  </si>
+  <si>
+    <t>Trang https://automationexercise.com tải thành công, không lỗi</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>TC02</t>
@@ -68,6 +74,18 @@
     <t>Logo Automation Exercise hiện rõ</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logo "Automation Exercise" hiển thị rõ nét, đúng vị trí</t>
+    </r>
+  </si>
+  <si>
     <t>TC03</t>
   </si>
   <si>
@@ -81,6 +99,18 @@
     <t>Các menu hiển thị đầy đủ và đúng tên</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thanh menu hiển thị đầy đủ: Home, Products, Cart, Signup / Login, Test Cases, API Testing, Contact us</t>
+    </r>
+  </si>
+  <si>
     <t>TC04</t>
   </si>
   <si>
@@ -94,6 +124,18 @@
     <t>Banner hiển thị đầy đủ hình ảnh</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Banner đầu trang hiển thị đầy đủ hình ảnh, không bị lỗi tải ảnh</t>
+    </r>
+  </si>
+  <si>
     <t>TC05</t>
   </si>
   <si>
@@ -107,6 +149,18 @@
     <t>Trở lại trang chủ với URL https://automationexercise.com</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click menu "Home" -&gt; điều hướng về trang chủ, URL đúng https://automationexercise.com</t>
+    </r>
+  </si>
+  <si>
     <t>TC06</t>
   </si>
   <si>
@@ -120,6 +174,18 @@
     <t>Điều hướng đến trang sản phẩm, URL chứa /products</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click menu "Products" -&gt; điều hướng đến trang sản phẩm, URL chứa /products</t>
+    </r>
+  </si>
+  <si>
     <t>TC07</t>
   </si>
   <si>
@@ -133,6 +199,18 @@
     <t>Điều hướng đến trang giỏ hàng, URL chứa /view_cart</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click menu "Cart" → Điều hướng đến trang giỏ hàng, URL chứa /view_cart</t>
+    </r>
+  </si>
+  <si>
     <t>TC08</t>
   </si>
   <si>
@@ -146,6 +224,18 @@
     <t>Điều hướng đến trang đăng ký/đăng nhập, URL chứa /login</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click menu "Signup / Login" → Điều hướng đến trang đăng ký/đăng nhập, URL chứa /login</t>
+    </r>
+  </si>
+  <si>
     <t>TC09</t>
   </si>
   <si>
@@ -159,6 +249,18 @@
     <t>Điều hướng đến trang liên hệ, URL chứa /contact_us</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click menu "Contact us" → Điều hướng đến trang liên hệ, URL chứa /contact_us</t>
+    </r>
+  </si>
+  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -170,6 +272,18 @@
   </si>
   <si>
     <t>Trở về trang chủ sau khi click logo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click logo từ trang bất kỳ → Quay lại trang chủ, URL là https://automationexercise.com</t>
+    </r>
   </si>
   <si>
     <t>TC11</t>
@@ -185,6 +299,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -197,6 +318,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>WOMEN - DRESS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WOMEN - DRESS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
     </r>
   </si>
   <si>
@@ -213,6 +367,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -225,6 +386,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>WOMEN - TOPS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WOMEN - TOPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
     </r>
   </si>
   <si>
@@ -241,6 +435,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -253,6 +454,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>WOMEN - SAFREE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WOMEN - SAFREE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
     </r>
   </si>
   <si>
@@ -269,6 +503,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -281,6 +522,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>MEN - TSHIRTS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MEN - TSHIRTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
     </r>
   </si>
   <si>
@@ -297,6 +571,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -309,6 +590,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>MEN - JEANS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MEN - JEANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
     </r>
   </si>
   <si>
@@ -325,6 +639,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang hiển thị sản phẩm </t>
     </r>
     <r>
@@ -340,6 +661,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KIDS - DRESS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC17</t>
   </si>
   <si>
@@ -347,6 +701,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang hiển thị sản phẩm </t>
     </r>
     <r>
@@ -362,10 +723,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KIDS - TOPS &amp; SHIRTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC18</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click vào </t>
     </r>
     <r>
@@ -398,6 +799,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang Products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -413,10 +821,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POLO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC19</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click vào </t>
     </r>
     <r>
@@ -449,6 +897,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang Products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -464,10 +919,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H&amp;M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC20</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click vào </t>
     </r>
     <r>
@@ -500,6 +995,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang Products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -515,10 +1017,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MADAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC21</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click vào </t>
     </r>
     <r>
@@ -551,6 +1093,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang Products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -566,10 +1115,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAST &amp; HARBOUR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC22</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click vào </t>
     </r>
     <r>
@@ -602,6 +1191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang Products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -617,10 +1213,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BABYHUG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC23</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click vào </t>
     </r>
     <r>
@@ -653,6 +1289,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang Products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -668,10 +1311,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALLEN SOLLY JUNIOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC24</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click vào </t>
     </r>
     <r>
@@ -704,6 +1387,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang Products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -719,10 +1409,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KOOKIE KIDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
+    </r>
+  </si>
+  <si>
     <t>TC25</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Click vào </t>
     </r>
     <r>
@@ -755,6 +1485,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang Products hiển thị sản phẩm thuộc danh mục </t>
     </r>
     <r>
@@ -767,6 +1504,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>BIBA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chuyển hướng đến trang sản phẩm thuộc danh mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BIBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hiển thị đúng sản phẩm</t>
     </r>
   </si>
   <si>
@@ -782,6 +1552,39 @@
   </si>
   <si>
     <t>Nút "View Product" hiển thị trên sản phẩm được hover</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hover vào sản phẩm bất kỳ → Nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View Product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiển thị rõ ràng</t>
+    </r>
   </si>
   <si>
     <t>TC27</t>
@@ -801,6 +1604,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Trang chi tiết hiển thị </t>
     </r>
     <r>
@@ -823,6 +1633,39 @@
         <scheme val="minor"/>
       </rPr>
       <t>sản phẩm đã chọn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View Product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sản phẩm đầu tiên → Mở trang chi tiết, tên sản phẩm khớp với danh sách</t>
     </r>
   </si>
   <si>
@@ -838,6 +1681,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Mỗi sản phẩm trong danh sách đều có nút "</t>
     </r>
     <r>
@@ -860,6 +1710,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tất cả sản phẩm hiển thị đều có nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View Product</t>
     </r>
   </si>
   <si>
@@ -875,7 +1748,79 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Popup hiển thị đầy đủ với 2 nút: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View Cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continue Shopping</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Popup hiển thị đầy đủ 2 nút </t>
     </r>
     <r>
       <rPr>
@@ -929,6 +1874,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Sản phẩm được thêm đúng vào giỏ hàng với </t>
     </r>
     <r>
@@ -941,6 +1893,18 @@
         <scheme val="minor"/>
       </rPr>
       <t>đúng tên, giá, số lượng mặc định là 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sản phẩm được thêm vào giỏ hàng đúng tên, giá, số lượng = 1</t>
     </r>
   </si>
   <si>
@@ -957,6 +1921,39 @@
   </si>
   <si>
     <t>Popup đóng lại, người dùng vẫn ở lại trang hiện tại, có thể tiếp tục chọn sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continue Shopping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → Popup đóng, vẫn ở trang hiện tại, tiếp tục chọn sản phẩm được</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1607,7 +2604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,10 +2617,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1945,10 +2945,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1958,7 +2958,7 @@
     <col min="4" max="4" width="46.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="35.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="84.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="58.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="8.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2001,556 +3001,784 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
     </row>
     <row r="4" ht="28.8" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" ht="28.8" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" ht="28.8" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" ht="28.8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" ht="28.8" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" ht="28.8" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" ht="28.8" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" ht="72" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" ht="72" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" ht="72" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" ht="57.6" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" ht="57.6" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" ht="57.6" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" ht="57.6" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" ht="57.6" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" ht="57.6" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" ht="57.6" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" ht="57.6" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" ht="57.6" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" ht="57.6" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" ht="57.6" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" ht="57.6" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" ht="43.2" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" ht="72" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" ht="43.2" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" ht="43.2" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" ht="86.4" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" ht="57.6" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="6:8">
+      <c r="F47" s="6"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="7:7">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="7:7">
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="7:7">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="7:7">
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="7:7">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="7:7">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="7:7">
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="7:7">
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="7:7">
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
